--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/D/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/D/15/seed1/result_data_RandomForest.xlsx
@@ -505,7 +505,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.250499999999997</v>
+        <v>-7.093999999999998</v>
       </c>
       <c r="E4" t="n">
         <v>17.51</v>
@@ -539,7 +539,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.846799999999998</v>
+        <v>-7.766699999999999</v>
       </c>
       <c r="E6" t="n">
         <v>16.12</v>
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.744800000000002</v>
+        <v>-7.817400000000001</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -709,7 +709,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.718399999999997</v>
+        <v>-8.625700000000002</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.689999999999999</v>
+        <v>-7.422999999999999</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -913,7 +913,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.3797</v>
+        <v>-8.333899999999996</v>
       </c>
       <c r="E28" t="n">
         <v>16.42</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.229699999999998</v>
+        <v>-7.252299999999999</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -981,7 +981,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-9.203899999999994</v>
+        <v>-9.153399999999994</v>
       </c>
       <c r="E32" t="n">
         <v>15.18</v>
@@ -1117,7 +1117,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-8.076499999999994</v>
+        <v>-8.192799999999995</v>
       </c>
       <c r="E40" t="n">
         <v>16.16</v>
@@ -1219,7 +1219,7 @@
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.213099999999999</v>
+        <v>-8.195799999999997</v>
       </c>
       <c r="E46" t="n">
         <v>16.03</v>
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.657599999999997</v>
+        <v>-7.632799999999999</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.683499999999996</v>
+        <v>-7.576199999999997</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.217100000000002</v>
+        <v>-8.199499999999999</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1440,7 +1440,7 @@
         <v>-14.55</v>
       </c>
       <c r="D59" t="n">
-        <v>-8.3757</v>
+        <v>-8.322299999999997</v>
       </c>
       <c r="E59" t="n">
         <v>16.47</v>
@@ -1491,7 +1491,7 @@
         <v>-14.53</v>
       </c>
       <c r="D62" t="n">
-        <v>-8.974499999999994</v>
+        <v>-9.148699999999989</v>
       </c>
       <c r="E62" t="n">
         <v>16.65</v>
@@ -1559,7 +1559,7 @@
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.239299999999999</v>
+        <v>-7.212800000000003</v>
       </c>
       <c r="E66" t="n">
         <v>17.07</v>
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.599299999999995</v>
+        <v>-7.574999999999996</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1695,7 +1695,7 @@
         <v>-12.97</v>
       </c>
       <c r="D74" t="n">
-        <v>-8.202900000000001</v>
+        <v>-8.233400000000001</v>
       </c>
       <c r="E74" t="n">
         <v>16.1</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.108</v>
+        <v>-6.189500000000002</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.331300000000001</v>
+        <v>-8.287499999999998</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
